--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Inhbb-Acvr2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Inhbb-Acvr2b.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4201923333333333</v>
+        <v>0.186238</v>
       </c>
       <c r="H2">
-        <v>1.260577</v>
+        <v>0.558714</v>
       </c>
       <c r="I2">
-        <v>0.08716480679187069</v>
+        <v>0.05023668284714279</v>
       </c>
       <c r="J2">
-        <v>0.08716480679187069</v>
+        <v>0.05023668284714279</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.539665666666667</v>
+        <v>1.315861666666667</v>
       </c>
       <c r="N2">
-        <v>4.618997</v>
+        <v>3.947585</v>
       </c>
       <c r="O2">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="P2">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="Q2">
-        <v>0.646955709029889</v>
+        <v>0.2450634450766667</v>
       </c>
       <c r="R2">
-        <v>5.822601381269001</v>
+        <v>2.20557100569</v>
       </c>
       <c r="S2">
-        <v>0.03113603857991112</v>
+        <v>0.01383543735422164</v>
       </c>
       <c r="T2">
-        <v>0.03113603857991112</v>
+        <v>0.01383543735422164</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4201923333333333</v>
+        <v>0.186238</v>
       </c>
       <c r="H3">
-        <v>1.260577</v>
+        <v>0.558714</v>
       </c>
       <c r="I3">
-        <v>0.08716480679187069</v>
+        <v>0.05023668284714279</v>
       </c>
       <c r="J3">
-        <v>0.08716480679187069</v>
+        <v>0.05023668284714279</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>4.358617</v>
       </c>
       <c r="O3">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="P3">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="Q3">
-        <v>0.6104858157787778</v>
+        <v>0.2705800376153333</v>
       </c>
       <c r="R3">
-        <v>5.494372342009</v>
+        <v>2.435220338538</v>
       </c>
       <c r="S3">
-        <v>0.02938085196137959</v>
+        <v>0.01527601621106207</v>
       </c>
       <c r="T3">
-        <v>0.02938085196137959</v>
+        <v>0.01527601621106207</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4201923333333333</v>
+        <v>0.186238</v>
       </c>
       <c r="H4">
-        <v>1.260577</v>
+        <v>0.558714</v>
       </c>
       <c r="I4">
-        <v>0.08716480679187069</v>
+        <v>0.05023668284714279</v>
       </c>
       <c r="J4">
-        <v>0.08716480679187069</v>
+        <v>0.05023668284714279</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.317729666666666</v>
+        <v>2.009179666666667</v>
       </c>
       <c r="N4">
-        <v>3.953189</v>
+        <v>6.027539</v>
       </c>
       <c r="O4">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="P4">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="Q4">
-        <v>0.5536999033392221</v>
+        <v>0.3741856027606667</v>
       </c>
       <c r="R4">
-        <v>4.983299130053</v>
+        <v>3.367670424846</v>
       </c>
       <c r="S4">
-        <v>0.02664791625057999</v>
+        <v>0.02112522928185909</v>
       </c>
       <c r="T4">
-        <v>0.02664791625057999</v>
+        <v>0.02112522928185909</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>7.340196000000001</v>
       </c>
       <c r="I5">
-        <v>0.5075507217365239</v>
+        <v>0.659992587420158</v>
       </c>
       <c r="J5">
-        <v>0.5075507217365239</v>
+        <v>0.6599925874201579</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.539665666666667</v>
+        <v>1.315861666666667</v>
       </c>
       <c r="N5">
-        <v>4.618997</v>
+        <v>3.947585</v>
       </c>
       <c r="O5">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="P5">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="Q5">
-        <v>3.767149255934668</v>
+        <v>3.219560847406667</v>
       </c>
       <c r="R5">
-        <v>33.90434330341201</v>
+        <v>28.97604762666</v>
       </c>
       <c r="S5">
-        <v>0.1813015990614689</v>
+        <v>0.1817653073409799</v>
       </c>
       <c r="T5">
-        <v>0.1813015990614689</v>
+        <v>0.1817653073409799</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>7.340196000000001</v>
       </c>
       <c r="I6">
-        <v>0.5075507217365239</v>
+        <v>0.659992587420158</v>
       </c>
       <c r="J6">
-        <v>0.5075507217365239</v>
+        <v>0.6599925874201579</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>4.358617</v>
       </c>
       <c r="O6">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="P6">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="Q6">
         <v>3.554789229881334</v>
@@ -818,10 +818,10 @@
         <v>31.993103068932</v>
       </c>
       <c r="S6">
-        <v>0.1710813477030841</v>
+        <v>0.2006911462543858</v>
       </c>
       <c r="T6">
-        <v>0.1710813477030841</v>
+        <v>0.2006911462543858</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>7.340196000000001</v>
       </c>
       <c r="I7">
-        <v>0.5075507217365239</v>
+        <v>0.659992587420158</v>
       </c>
       <c r="J7">
-        <v>0.5075507217365239</v>
+        <v>0.6599925874201579</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.317729666666666</v>
+        <v>2.009179666666667</v>
       </c>
       <c r="N7">
-        <v>3.953189</v>
+        <v>6.027539</v>
       </c>
       <c r="O7">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="P7">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="Q7">
-        <v>3.224131342782667</v>
+        <v>4.915924184182668</v>
       </c>
       <c r="R7">
-        <v>29.017182085044</v>
+        <v>44.24331765764401</v>
       </c>
       <c r="S7">
-        <v>0.155167774971971</v>
+        <v>0.2775361338247923</v>
       </c>
       <c r="T7">
-        <v>0.155167774971971</v>
+        <v>0.2775361338247922</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.953740666666667</v>
+        <v>1.074241333333333</v>
       </c>
       <c r="H8">
-        <v>5.861222</v>
+        <v>3.222724</v>
       </c>
       <c r="I8">
-        <v>0.4052844714716054</v>
+        <v>0.2897707297326994</v>
       </c>
       <c r="J8">
-        <v>0.4052844714716054</v>
+        <v>0.2897707297326994</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.539665666666667</v>
+        <v>1.315861666666667</v>
       </c>
       <c r="N8">
-        <v>4.618997</v>
+        <v>3.947585</v>
       </c>
       <c r="O8">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="P8">
-        <v>0.3572088291809875</v>
+        <v>0.2754050739440597</v>
       </c>
       <c r="Q8">
-        <v>3.008107426037111</v>
+        <v>1.413552991282222</v>
       </c>
       <c r="R8">
-        <v>27.072966834334</v>
+        <v>12.72197692154</v>
       </c>
       <c r="S8">
-        <v>0.1447711915396075</v>
+        <v>0.07980432924885821</v>
       </c>
       <c r="T8">
-        <v>0.1447711915396075</v>
+        <v>0.07980432924885821</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.953740666666667</v>
+        <v>1.074241333333333</v>
       </c>
       <c r="H9">
-        <v>5.861222</v>
+        <v>3.222724</v>
       </c>
       <c r="I9">
-        <v>0.4052844714716054</v>
+        <v>0.2897707297326994</v>
       </c>
       <c r="J9">
-        <v>0.4052844714716054</v>
+        <v>0.2897707297326994</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>4.358617</v>
       </c>
       <c r="O9">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="P9">
-        <v>0.3370724153789985</v>
+        <v>0.3040809095127364</v>
       </c>
       <c r="Q9">
-        <v>2.838535761108222</v>
+        <v>1.560735512523111</v>
       </c>
       <c r="R9">
-        <v>25.546821849974</v>
+        <v>14.046619612708</v>
       </c>
       <c r="S9">
-        <v>0.1366102157145349</v>
+        <v>0.08811374704728855</v>
       </c>
       <c r="T9">
-        <v>0.1366102157145349</v>
+        <v>0.08811374704728855</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.953740666666667</v>
+        <v>1.074241333333333</v>
       </c>
       <c r="H10">
-        <v>5.861222</v>
+        <v>3.222724</v>
       </c>
       <c r="I10">
-        <v>0.4052844714716054</v>
+        <v>0.2897707297326994</v>
       </c>
       <c r="J10">
-        <v>0.4052844714716054</v>
+        <v>0.2897707297326994</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.317729666666666</v>
+        <v>2.009179666666667</v>
       </c>
       <c r="N10">
-        <v>3.953189</v>
+        <v>6.027539</v>
       </c>
       <c r="O10">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="P10">
-        <v>0.305718755440014</v>
+        <v>0.4205140165432039</v>
       </c>
       <c r="Q10">
-        <v>2.574502037439777</v>
+        <v>2.158343844026223</v>
       </c>
       <c r="R10">
-        <v>23.170518336958</v>
+        <v>19.425094596236</v>
       </c>
       <c r="S10">
-        <v>0.1239030642174631</v>
+        <v>0.1218526534365526</v>
       </c>
       <c r="T10">
-        <v>0.1239030642174631</v>
+        <v>0.1218526534365526</v>
       </c>
     </row>
   </sheetData>
